--- a/crypto/Future + Glassnode/Bybit Data/1/MCUSDT_60min_20h15m39s.xlsx
+++ b/crypto/Future + Glassnode/Bybit Data/1/MCUSDT_60min_20h15m39s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenkot\OneDrive\桌面\Python learning\Calvin\Script\Production\Future + Glassnode\Bybit Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenkot\OneDrive\桌面\Python learning\Calvin\Script\Production\Future + Glassnode\Bybit Data\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72881C-03A8-4778-9CC7-17451FAFA1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D002D6-DD19-4C10-9A3B-7513E70664B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31830" yWindow="2880" windowWidth="21600" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OI" sheetId="1" r:id="rId1"/>
@@ -4518,6 +4518,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="684031240"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6641,7 +6642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -8872,7 +8873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
